--- a/Data/Excel/StudyProgram.xlsx
+++ b/Data/Excel/StudyProgram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaAnhTU\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaAnhTU\Desktop\CĐTN\CDTN\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4031,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
-      <selection activeCell="K830" sqref="K830"/>
+    <sheetView tabSelected="1" topLeftCell="A896" workbookViewId="0">
+      <selection activeCell="B908" sqref="B908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1212</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1212</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1212</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1212</v>
       </c>
